--- a/Runtime_data.xlsx
+++ b/Runtime_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\HSG\Big Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8C27E9-94DD-45E6-B1A1-39823C9E9B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6148AF15-0033-46D3-9992-7CF1F27E1DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{24E1C225-BDA7-4C13-8D5B-5CAD8935102D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{24E1C225-BDA7-4C13-8D5B-5CAD8935102D}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Original dataset</t>
   </si>
@@ -77,10 +77,22 @@
     <t>8.696434 min</t>
   </si>
   <si>
-    <t>R with optimisation</t>
-  </si>
-  <si>
     <t>3+ hours (N/A)</t>
+  </si>
+  <si>
+    <t>R with parallel processing</t>
+  </si>
+  <si>
+    <t>20.56177 sec</t>
+  </si>
+  <si>
+    <t>1.232462 min</t>
+  </si>
+  <si>
+    <t>3.706336 sec</t>
+  </si>
+  <si>
+    <t>1.159958 sec</t>
   </si>
 </sst>
 </file>
@@ -241,9 +253,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -253,18 +275,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -582,7 +592,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,406 +606,399 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>26</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>5052</v>
-      </c>
-      <c r="C3" s="7"/>
+      <c r="B3">
+        <v>5052</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <f>B2*B3</f>
         <v>131352</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <v>4</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="8">
         <v>5</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="8">
         <v>6</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="8">
         <v>7</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="8">
         <v>8</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="8">
         <v>9</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>351</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>2951</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>17901</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>83681</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="6">
-        <v>5052</v>
-      </c>
-      <c r="C10" s="6">
-        <v>5052</v>
-      </c>
-      <c r="D10" s="6">
-        <v>5052</v>
-      </c>
-      <c r="E10" s="6">
-        <v>5052</v>
-      </c>
-      <c r="F10" s="6">
-        <v>5052</v>
-      </c>
-      <c r="G10" s="6">
-        <v>5052</v>
-      </c>
-      <c r="H10" s="6">
-        <v>5052</v>
-      </c>
-      <c r="I10" s="6">
-        <v>5052</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="B10">
+        <v>5052</v>
+      </c>
+      <c r="C10">
+        <v>5052</v>
+      </c>
+      <c r="D10">
+        <v>5052</v>
+      </c>
+      <c r="E10">
+        <v>5052</v>
+      </c>
+      <c r="F10">
+        <v>5052</v>
+      </c>
+      <c r="G10">
+        <v>5052</v>
+      </c>
+      <c r="H10">
+        <v>5052</v>
+      </c>
+      <c r="I10">
+        <v>5052</v>
+      </c>
+      <c r="J10" s="3">
         <v>5052</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <f>B9*B10</f>
         <v>1773252</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <f t="shared" ref="C11:J11" si="0">C9*C10</f>
         <v>14908452</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>90435852</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>422756412</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="5">
         <v>14.1</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>114.8</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>694.1</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <v>3244.5</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="8">
         <v>2</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="8">
         <v>3</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="8">
         <v>4</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="8">
         <v>5</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="8">
         <v>6</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="8">
         <v>7</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="8">
         <v>8</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="8">
         <v>9</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>351</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>2951</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>17901</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>83681</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="6">
-        <v>5052</v>
-      </c>
-      <c r="C19" s="6">
-        <v>5052</v>
-      </c>
-      <c r="D19" s="6">
-        <v>5052</v>
-      </c>
-      <c r="E19" s="6">
-        <v>5052</v>
-      </c>
-      <c r="F19" s="6">
-        <v>5052</v>
-      </c>
-      <c r="G19" s="6">
-        <v>5052</v>
-      </c>
-      <c r="H19" s="6">
-        <v>5052</v>
-      </c>
-      <c r="I19" s="6">
-        <v>5052</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="B19">
+        <v>5052</v>
+      </c>
+      <c r="C19">
+        <v>5052</v>
+      </c>
+      <c r="D19">
+        <v>5052</v>
+      </c>
+      <c r="E19">
+        <v>5052</v>
+      </c>
+      <c r="F19">
+        <v>5052</v>
+      </c>
+      <c r="G19">
+        <v>5052</v>
+      </c>
+      <c r="H19">
+        <v>5052</v>
+      </c>
+      <c r="I19">
+        <v>5052</v>
+      </c>
+      <c r="J19" s="3">
         <v>5052</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <f>B18*B19</f>
         <v>1773252</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20">
         <f t="shared" ref="C20" si="1">C18*C19</f>
         <v>14908452</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20">
         <f t="shared" ref="D20" si="2">D18*D19</f>
         <v>90435852</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20">
         <f t="shared" ref="E20" si="3">E18*E19</f>
         <v>422756412</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20">
         <f t="shared" ref="F20" si="4">F18*F19</f>
         <v>0</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20">
         <f t="shared" ref="G20" si="5">G18*G19</f>
         <v>0</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20">
         <f t="shared" ref="H20" si="6">H18*H19</f>
         <v>0</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20">
         <f t="shared" ref="I20" si="7">I18*I19</f>
         <v>0</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="3">
         <f t="shared" ref="J20" si="8">J18*J19</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="5">
         <v>14.1</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="5">
         <v>114.8</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="5">
         <v>694.1</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="5">
         <v>3244.5</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Runtime_data.xlsx
+++ b/Runtime_data.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\HSG\Big Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6148AF15-0033-46D3-9992-7CF1F27E1DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB017D8-C31D-4282-9D63-99BD726D63A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{24E1C225-BDA7-4C13-8D5B-5CAD8935102D}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{24E1C225-BDA7-4C13-8D5B-5CAD8935102D}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Munka2" sheetId="2" r:id="rId2"/>
+    <sheet name="Munka3" sheetId="3" r:id="rId3"/>
+    <sheet name="Munka4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Original dataset</t>
   </si>
@@ -93,6 +96,39 @@
   </si>
   <si>
     <t>1.159958 sec</t>
+  </si>
+  <si>
+    <t>RSQLite</t>
+  </si>
+  <si>
+    <t>8.637616 secs</t>
+  </si>
+  <si>
+    <t>Algo runtime</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>Algo parallel runtime</t>
+  </si>
+  <si>
+    <t>3.66353 min</t>
+  </si>
+  <si>
+    <t>31.34457 min</t>
+  </si>
+  <si>
+    <t>cum</t>
+  </si>
+  <si>
+    <t>cum+26</t>
+  </si>
+  <si>
+    <t>Parallel runtime</t>
+  </si>
+  <si>
+    <t>Normal runtime</t>
   </si>
 </sst>
 </file>
@@ -124,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -249,11 +285,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -266,6 +341,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -275,6 +354,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -589,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFD52FF-3701-4D30-88C6-E46DC0DF0FAE}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,17 +690,20 @@
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -621,8 +711,10 @@
         <v>26</v>
       </c>
       <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -631,7 +723,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -641,22 +733,22 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -688,7 +780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
@@ -706,7 +798,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
@@ -738,7 +830,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
@@ -779,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
@@ -800,7 +892,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
@@ -822,22 +914,44 @@
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <f>COMBIN(26,N16)</f>
+        <v>325</v>
+      </c>
+      <c r="P16">
+        <f>O16</f>
+        <v>325</v>
+      </c>
+      <c r="Q16">
+        <f>P16+26</f>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -868,117 +982,210 @@
       <c r="J17" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17:O24" si="1">COMBIN(26,N17)</f>
+        <v>2600</v>
+      </c>
+      <c r="P17">
+        <f>O17+P16</f>
+        <v>2925</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ref="Q17:Q24" si="2">P17+26</f>
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="17">
         <v>351</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="17">
         <v>2951</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="17">
         <v>17901</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="17">
         <v>83681</v>
       </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="17">
+        <v>313911</v>
+      </c>
+      <c r="G18">
+        <v>971710.99999999988</v>
+      </c>
+      <c r="H18" s="17">
+        <v>2533986.0000000005</v>
+      </c>
+      <c r="I18" s="17">
+        <v>5658536</v>
+      </c>
+      <c r="J18" s="3">
+        <v>10970271</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>14950</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P24" si="3">O18+P17</f>
+        <v>17875</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>17901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B19">
-        <v>5052</v>
-      </c>
-      <c r="C19">
-        <v>5052</v>
-      </c>
-      <c r="D19">
-        <v>5052</v>
-      </c>
-      <c r="E19">
-        <v>5052</v>
-      </c>
-      <c r="F19">
-        <v>5052</v>
-      </c>
-      <c r="G19">
-        <v>5052</v>
-      </c>
-      <c r="H19">
-        <v>5052</v>
-      </c>
-      <c r="I19">
+      <c r="B19" s="17">
+        <v>5052</v>
+      </c>
+      <c r="C19" s="17">
+        <v>5052</v>
+      </c>
+      <c r="D19" s="17">
+        <v>5052</v>
+      </c>
+      <c r="E19" s="17">
+        <v>5052</v>
+      </c>
+      <c r="F19" s="17">
+        <v>5052</v>
+      </c>
+      <c r="G19" s="17">
+        <v>5052</v>
+      </c>
+      <c r="H19" s="17">
+        <v>5052</v>
+      </c>
+      <c r="I19" s="17">
         <v>5052</v>
       </c>
       <c r="J19" s="3">
         <v>5052</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>65780.000000000015</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>83655.000000000015</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>83681.000000000015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="17">
         <f>B18*B19</f>
         <v>1773252</v>
       </c>
-      <c r="C20">
-        <f t="shared" ref="C20" si="1">C18*C19</f>
+      <c r="C20" s="17">
+        <f t="shared" ref="C20" si="4">C18*C19</f>
         <v>14908452</v>
       </c>
-      <c r="D20">
-        <f t="shared" ref="D20" si="2">D18*D19</f>
+      <c r="D20" s="17">
+        <f t="shared" ref="D20" si="5">D18*D19</f>
         <v>90435852</v>
       </c>
-      <c r="E20">
-        <f t="shared" ref="E20" si="3">E18*E19</f>
+      <c r="E20" s="17">
+        <f t="shared" ref="E20:J20" si="6">E18*E19</f>
         <v>422756412</v>
       </c>
-      <c r="F20">
-        <f t="shared" ref="F20" si="4">F18*F19</f>
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ref="G20" si="5">G18*G19</f>
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ref="H20" si="6">H18*H19</f>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f t="shared" ref="I20" si="7">I18*I19</f>
-        <v>0</v>
+      <c r="F20" s="17">
+        <f t="shared" si="6"/>
+        <v>1585878372</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="6"/>
+        <v>4909083971.999999</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" si="6"/>
+        <v>12801697272.000002</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" si="6"/>
+        <v>28586923872</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" ref="J20" si="8">J18*J19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>55421809092</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>230230</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>313885</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>313911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="17" t="s">
         <v>16</v>
       </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>7</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>657799.99999999988</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>971684.99999999988</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>971710.99999999988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>8</v>
       </c>
@@ -994,18 +1201,620 @@
       <c r="E22" s="5">
         <v>3244.5</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
+      <c r="F22" s="5">
+        <f>$P$29*F20</f>
+        <v>12171.033322976542</v>
+      </c>
+      <c r="G22" s="5">
+        <f>$P$29*G20</f>
+        <v>37675.414245766653</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" ref="G22:J22" si="7">$P$29*H20</f>
+        <v>98248.318937393211</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="7"/>
+        <v>219394.12832064627</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="7"/>
+        <v>425342.00427217648</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>1562275.0000000005</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>2533960.0000000005</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>2533986.0000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>9</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>3124550</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>5658510</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>5658536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="N24">
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>5311735</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>10970245</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>10970271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3</v>
+      </c>
+      <c r="D25" s="8">
+        <v>4</v>
+      </c>
+      <c r="E25" s="8">
+        <v>5</v>
+      </c>
+      <c r="F25" s="8">
+        <v>6</v>
+      </c>
+      <c r="G25" s="8">
+        <v>7</v>
+      </c>
+      <c r="H25" s="8">
+        <v>8</v>
+      </c>
+      <c r="I25" s="8">
+        <v>9</v>
+      </c>
+      <c r="J25" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>351</v>
+      </c>
+      <c r="C26">
+        <v>2951</v>
+      </c>
+      <c r="D26">
+        <v>17901</v>
+      </c>
+      <c r="E26">
+        <v>83681</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>5052</v>
+      </c>
+      <c r="C27">
+        <v>5052</v>
+      </c>
+      <c r="D27">
+        <v>5052</v>
+      </c>
+      <c r="E27">
+        <v>5052</v>
+      </c>
+      <c r="F27">
+        <v>5052</v>
+      </c>
+      <c r="G27">
+        <v>5052</v>
+      </c>
+      <c r="H27">
+        <v>5052</v>
+      </c>
+      <c r="I27">
+        <v>5052</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>1773252</v>
+      </c>
+      <c r="C28">
+        <v>14908452</v>
+      </c>
+      <c r="D28">
+        <v>90435852</v>
+      </c>
+      <c r="E28">
+        <v>422756412</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>14.1/B20</f>
+        <v>7.9514925120625838E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="N29">
+        <f>C22/C20</f>
+        <v>7.7003299873118956E-6</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ref="O29:Q29" si="8">D22/D20</f>
+        <v>7.675053473261909E-6</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>7.674632265542078E-6</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="8"/>
+        <v>7.674632265542078E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="5">
+        <v>13.6</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f>F20/E20</f>
+        <v>3.7512816529439181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f>F22/E22</f>
+        <v>3.7512816529439181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A39:J39"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EADC8A1-CF23-474E-9964-DD037EB99984}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="20">
+        <v>2</v>
+      </c>
+      <c r="C1" s="20">
+        <v>3</v>
+      </c>
+      <c r="D1" s="20">
+        <v>4</v>
+      </c>
+      <c r="E1" s="20">
+        <v>5</v>
+      </c>
+      <c r="F1" s="20">
+        <v>6</v>
+      </c>
+      <c r="G1" s="20">
+        <v>7</v>
+      </c>
+      <c r="H1" s="20">
+        <v>8</v>
+      </c>
+      <c r="I1" s="20">
+        <v>9</v>
+      </c>
+      <c r="J1" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>351</v>
+      </c>
+      <c r="C2" s="17">
+        <v>2951</v>
+      </c>
+      <c r="D2" s="17">
+        <v>17901</v>
+      </c>
+      <c r="E2" s="17">
+        <v>83681</v>
+      </c>
+      <c r="F2" s="17">
+        <v>313911</v>
+      </c>
+      <c r="G2" s="17">
+        <v>971710.99999999988</v>
+      </c>
+      <c r="H2" s="17">
+        <v>2533986.0000000005</v>
+      </c>
+      <c r="I2" s="17">
+        <v>5658536</v>
+      </c>
+      <c r="J2" s="3">
+        <v>10970271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="23">
+        <v>14.1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>114.8</v>
+      </c>
+      <c r="D3" s="23">
+        <v>694.1</v>
+      </c>
+      <c r="E3" s="23">
+        <v>3244.5</v>
+      </c>
+      <c r="F3" s="23">
+        <v>12171.033322976542</v>
+      </c>
+      <c r="G3" s="23">
+        <v>37675.414245766653</v>
+      </c>
+      <c r="H3" s="23">
+        <v>98248.318937393211</v>
+      </c>
+      <c r="I3" s="23">
+        <v>219394.12832064627</v>
+      </c>
+      <c r="J3" s="24">
+        <v>425342.00427217648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184FD307-A285-41BC-AEEE-E96E36822E58}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>7.6778890000000002E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.0870820000000001</v>
+      </c>
+      <c r="D2">
+        <v>13.866949999999999</v>
+      </c>
+      <c r="E2">
+        <f>8.696434*60</f>
+        <v>521.78603999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1.159958</v>
+      </c>
+      <c r="C3" s="17">
+        <v>3.7063359999999999</v>
+      </c>
+      <c r="D3" s="17">
+        <v>20.561769999999999</v>
+      </c>
+      <c r="E3" s="17">
+        <f>1.232462*60</f>
+        <v>73.947720000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF70434-F9A5-4443-A2A9-BBAB0E01DE05}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>7.6778890000000002E-2</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1.159958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1.0870820000000001</v>
+      </c>
+      <c r="C3" s="17">
+        <v>3.7063359999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>13.866949999999999</v>
+      </c>
+      <c r="C4" s="17">
+        <v>20.561769999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f>8.696434*60</f>
+        <v>521.78603999999996</v>
+      </c>
+      <c r="C5" s="17">
+        <f>1.232462*60</f>
+        <v>73.947720000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>